--- a/REVER_DailyTracker_20200903.xlsx
+++ b/REVER_DailyTracker_20200903.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7443BDE-7471-4195-9A69-84256D4557EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C3C2A-9028-48F7-9CD0-DCC50173B6B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="146">
   <si>
     <t>Task</t>
   </si>
@@ -518,6 +512,12 @@
   </si>
   <si>
     <t>1. Development has been done for Captcha verification error and for Username/password verification error  and tested and success</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix  and New enhancement</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +548,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -626,10 +648,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -668,9 +693,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{EE6A1A42-3C0A-4F54-AE06-522B9BAD940C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,22 +1018,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1054,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1064,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1055,10 +1088,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1072,9 +1105,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1088,9 +1121,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1104,8 +1137,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1122,19 +1155,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1152,13 +1185,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1202,12 +1235,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1248,12 +1281,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1275,12 +1308,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1304,7 +1337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1312,12 +1345,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1325,7 +1358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1349,12 +1382,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1370,7 +1403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1394,12 +1427,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1439,12 +1472,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1500,12 +1533,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1521,12 +1554,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1534,22 +1567,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1581,12 +1614,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1610,17 +1643,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1636,17 +1669,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1654,12 +1687,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1667,27 +1700,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1695,12 +1728,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1708,7 +1741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1716,12 +1749,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1729,7 +1762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1737,12 +1770,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1750,7 +1783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1758,7 +1791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1766,17 +1799,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1784,12 +1817,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1797,7 +1830,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1805,12 +1838,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1818,17 +1851,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1844,12 +1877,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1857,7 +1890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1865,7 +1898,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1873,7 +1906,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1881,12 +1914,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1894,12 +1927,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1907,12 +1940,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:7">
       <c r="D288" t="s">
         <v>108</v>
       </c>
@@ -1920,12 +1953,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:7">
       <c r="G289" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:7" ht="45">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1933,7 +1966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:7">
       <c r="D295" t="s">
         <v>107</v>
       </c>
@@ -1941,17 +1974,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:7">
       <c r="G296" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:7">
       <c r="G297" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:7">
       <c r="D300" t="s">
         <v>140</v>
       </c>
@@ -1959,7 +1992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:7">
       <c r="D302" t="s">
         <v>108</v>
       </c>
@@ -1967,7 +2000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:7">
       <c r="D304" t="s">
         <v>108</v>
       </c>
@@ -1990,18 +2023,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2033,7 +2066,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2042,46 +2075,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2098,22 +2131,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2136,16 +2169,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44077</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2154,46 +2195,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2214,18 +2255,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2248,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2257,7 +2298,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2266,46 +2307,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2326,18 +2367,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2369,7 +2410,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2378,46 +2419,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2438,18 +2479,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2493,7 +2534,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2502,46 +2543,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2562,18 +2603,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2605,7 +2646,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2614,46 +2655,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2674,18 +2715,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2717,7 +2758,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2726,46 +2767,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2786,18 +2827,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2829,7 +2870,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2838,46 +2879,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2898,18 +2939,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2941,7 +2982,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2950,46 +2991,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200903.xlsx
+++ b/REVER_DailyTracker_20200903.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Desktop\All Documents\Rever\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9661A35-13D5-4D14-B257-DC03F5F05FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F571B6-65CF-443E-8707-C5873E0D4973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>B2C &amp; Hayaai</t>
+  </si>
+  <si>
+    <t>Hayaai APP</t>
+  </si>
+  <si>
+    <t>Service Request -B2B issue tracker issues resolving</t>
   </si>
 </sst>
 </file>
@@ -573,15 +579,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -605,7 +611,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -678,19 +684,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -815,15 +821,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -926,15 +932,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -960,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -971,7 +977,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1041,15 +1047,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1148,19 +1154,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1189,9 +1195,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.4</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
@@ -1263,15 +1275,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1363,15 +1375,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1474,15 +1486,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1585,15 +1597,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1696,15 +1708,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
